--- a/data/fruit_data_cleaned.xlsx
+++ b/data/fruit_data_cleaned.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/fruit_data_cleaned.xlsx
+++ b/data/fruit_data_cleaned.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -517,7 +517,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pale Yellow</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Pale Yellow</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Pale Yellow</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Pale Yellow</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Pale Yellow</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Pale Yellow</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Pale Yellow</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Pale Yellow</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Pale Yellow</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">

--- a/data/fruit_data_cleaned.xlsx
+++ b/data/fruit_data_cleaned.xlsx
@@ -517,7 +517,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Pale Yellow</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Pale Yellow</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Pale Yellow</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Pale Yellow</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Pale Yellow</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Pale Yellow</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Pale Yellow</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Pale Yellow</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Pale Yellow</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
